--- a/biology/Botanique/Delesseria/Delesseria.xlsx
+++ b/biology/Botanique/Delesseria/Delesseria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Delesseria est un genre d’algues rouges de la famille des Delesseriaceae. 
-Il est nommé en l’honneur de Benjamin Delessert[1].
+Il est nommé en l’honneur de Benjamin Delessert.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (3 août 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (3 août 2017) :
 Delesseria aemula A.Millar &amp; M.J.Wynne
 Delesseria amethystina Schousboe (Sans vérification)
 Delesseria appendiculata Mazza ex De Toni
@@ -562,13 +576,13 @@
 Delesseria tenerrima Greville (Sans vérification)
 Delesseria ulvoides (Turner) C.Agardh
 Delesseria vieillardii (Kützing) Zanardini (Sans vérification)
-Selon BioLib                    (3 août 2017)[3] :
+Selon BioLib                    (3 août 2017) :
 Delesseria decipiens
 Delesseria sanguinea
-Selon ITIS      (3 août 2017)[4] :
+Selon ITIS      (3 août 2017) :
 Delesseria decipiens
 Delesseria sanguinea
-Selon World Register of Marine Species                               (3 août 2017)[2] :
+Selon World Register of Marine Species                               (3 août 2017) :
 Delesseria aemula A.J.K.Millar &amp; M.J.Wynne, 1992
 Delesseria amethystina Schousboe
 Delesseria appendiculata Mazza ex De Toni, 1924
